--- a/docs/explain.xlsx
+++ b/docs/explain.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\divide-into-fewer-rectangles\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D45216C-1C89-487E-8D0C-B9038354ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA349BD-CE27-4EAA-82E0-D3C2480C3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="1910" windowWidth="24110" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4790" yWindow="1710" windowWidth="25540" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>なるべく少ない数の長方形で埋め尽くしたい。</t>
     <rPh sb="4" eb="5">
@@ -197,6 +198,20 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑　ここで停止する</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ "3" が２つできたのは修正したい</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +292,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -299,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -310,6 +349,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -592,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -921,4 +967,359 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AE21B6-C061-4D11-8702-94CC6A05B3E2}">
+  <dimension ref="C3:Z50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="26" max="26" width="2.5" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="15" customHeight="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="3:9" ht="15" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="15" customHeight="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="3:9" ht="15" customHeight="1">
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="3:9" ht="15" customHeight="1">
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="3:9" ht="15" customHeight="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="11" spans="3:9" ht="15" customHeight="1">
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="3:9" ht="15" customHeight="1">
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="15" customHeight="1">
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="3:9" ht="15" customHeight="1">
+      <c r="C14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="3:9" ht="15" customHeight="1">
+      <c r="C15" s="16">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" ht="15" customHeight="1">
+      <c r="C16" s="14">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="19" spans="3:12" ht="15" customHeight="1">
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="3:12" ht="15" customHeight="1">
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="3:12" ht="15" customHeight="1">
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="6">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="15" customHeight="1">
+      <c r="C22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" ht="15" customHeight="1">
+      <c r="C23" s="16">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" ht="15" customHeight="1">
+      <c r="C24" s="14">
+        <v>8</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="27" spans="3:12" ht="15" customHeight="1">
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="3:12" ht="15" customHeight="1">
+      <c r="C28" s="15">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="3:12" ht="15" customHeight="1">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="3:12" ht="15" customHeight="1">
+      <c r="C30" s="11">
+        <v>4</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" ht="15" customHeight="1">
+      <c r="C31" s="16">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="3:12" ht="15" customHeight="1">
+      <c r="C32" s="14">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="35" spans="3:9" ht="15" customHeight="1">
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="3:9" ht="15" customHeight="1">
+      <c r="C36" s="15">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:9" ht="15" customHeight="1">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" ht="15" customHeight="1">
+      <c r="C38" s="11">
+        <v>4</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="3:9" ht="15" customHeight="1">
+      <c r="C39" s="16">
+        <v>6</v>
+      </c>
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="3:9" ht="15" customHeight="1">
+      <c r="C40" s="14">
+        <v>8</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="43" spans="3:9" ht="15" customHeight="1">
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="3:9" ht="15" customHeight="1">
+      <c r="C44" s="15">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="3:9" ht="15" customHeight="1">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="6">
+        <v>3</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="3:9" ht="15" customHeight="1">
+      <c r="C46" s="11">
+        <v>4</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="3:9" ht="15" customHeight="1">
+      <c r="C47" s="11"/>
+      <c r="F47" s="4">
+        <v>7</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="3:9" ht="15" customHeight="1">
+      <c r="C48" s="11"/>
+      <c r="D48" s="14">
+        <v>8</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="50" spans="3:3" ht="15" customHeight="1">
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/explain.xlsx
+++ b/docs/explain.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\divide-into-fewer-rectangles\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA349BD-CE27-4EAA-82E0-D3C2480C3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27892EED-B681-430A-8640-C57E2412D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4790" yWindow="1710" windowWidth="25540" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2570" yWindow="2500" windowWidth="24110" windowHeight="16830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>なるべく少ない数の長方形で埋め尽くしたい。</t>
     <rPh sb="4" eb="5">
@@ -212,6 +213,26 @@
     <t>※ "3" が２つできたのは修正したい</t>
     <rPh sb="14" eb="16">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ "3" は既出なので、"5" に置換します</t>
+    <rPh sb="7" eb="9">
+      <t>キシュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ "3" は既出なので、"6" に置換します</t>
+    <rPh sb="7" eb="9">
+      <t>キシュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +263,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +343,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -334,11 +385,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -356,6 +488,30 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -973,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AE21B6-C061-4D11-8702-94CC6A05B3E2}">
   <dimension ref="C3:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1322,4 +1478,271 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB7FD0F-2147-40BB-AD7A-D34CB7C5CCF2}">
+  <dimension ref="C3:Z35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="26" max="26" width="2.4140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" ht="15" customHeight="1">
+      <c r="E3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="3:10" ht="15" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" ht="15" customHeight="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="8" spans="3:10" ht="15" customHeight="1">
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15" customHeight="1">
+      <c r="C9" s="27">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="3:10" ht="15" customHeight="1">
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="13" spans="3:10" ht="15" customHeight="1">
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15" customHeight="1">
+      <c r="C14" s="27">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="27">
+        <v>3</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" customHeight="1" thickBot="1">
+      <c r="C15" s="11">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="17" spans="3:12" ht="15" customHeight="1" thickBot="1"/>
+    <row r="18" spans="3:12" ht="15" customHeight="1">
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="15" customHeight="1">
+      <c r="C19" s="27">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="27">
+        <v>3</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="11">
+        <v>4</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="11">
+        <v>4</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="23" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="15" customHeight="1">
+      <c r="C24" s="28">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="27">
+        <v>3</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="27">
+        <v>3</v>
+      </c>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="11">
+        <v>4</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="11">
+        <v>4</v>
+      </c>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="28" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="15" customHeight="1">
+      <c r="C29" s="27">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="33">
+        <v>5</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="27">
+        <v>3</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="11">
+        <v>4</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="33" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15" customHeight="1">
+      <c r="C34" s="27">
+        <v>3</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="32">
+        <v>5</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="37">
+        <v>6</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/explain.xlsx
+++ b/docs/explain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\divide-into-fewer-rectangles\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27892EED-B681-430A-8640-C57E2412D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED9747-1AB0-4E25-824F-5A20C3236611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2570" yWindow="2500" windowWidth="24110" windowHeight="16830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="860" windowWidth="18880" windowHeight="19770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
@@ -27,52 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>なるべく少ない数の長方形で埋め尽くしたい。</t>
-    <rPh sb="4" eb="5">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>チョウホウケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑　例えば４つの長方形で埋め尽くすことができる。</t>
-    <rPh sb="2" eb="3">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>チョウホウケイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑　上のような図形があるとき、</t>
-    <rPh sb="2" eb="3">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ズケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>以下、アルゴリズムを示す。</t>
     <rPh sb="0" eb="2">
@@ -165,13 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>くっつく（浸食していく）。</t>
-    <rPh sb="5" eb="7">
-      <t>シンショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑　上図、黄緑色。下の行の方が、自分の短冊の長さ分あれば、</t>
     <rPh sb="2" eb="4">
       <t>ジョウズ</t>
@@ -233,6 +181,51 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑　上のような図形を与えると、</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑　上図のように、なるべく少ない数の長方形で埋め尽くします。</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下に浸食していく。</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -270,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +360,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -466,11 +465,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -512,6 +547,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -792,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:Z70"/>
+  <dimension ref="C3:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -839,15 +894,17 @@
     </row>
     <row r="9" spans="3:9" ht="15" customHeight="1">
       <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="15" customHeight="1">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="15" customHeight="1">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="3:9" ht="15" customHeight="1">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -858,10 +915,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="3:9" ht="15" customHeight="1">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -869,51 +926,36 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="3:9" ht="15" customHeight="1">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="3:11" ht="15" customHeight="1">
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="19" spans="3:11" ht="15" customHeight="1">
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="15" customHeight="1">
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="15" customHeight="1">
-      <c r="E23" s="8">
+    <row r="18" spans="3:11" ht="15" customHeight="1">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15" customHeight="1">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="15" customHeight="1">
+      <c r="E24" s="8">
         <v>7</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="25" spans="3:11" ht="15" customHeight="1">
-      <c r="C25" s="8">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="26" spans="3:11" ht="15" customHeight="1">
+      <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="3:11" ht="15" customHeight="1">
-      <c r="C26" s="7"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -925,11 +967,11 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="3:11" ht="15" customHeight="1">
       <c r="C28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -938,185 +980,234 @@
     </row>
     <row r="29" spans="3:11" ht="15" customHeight="1">
       <c r="C29" s="7"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="31" spans="3:11" ht="15" customHeight="1">
-      <c r="C31" t="s">
+    <row r="30" spans="3:11" ht="15" customHeight="1">
+      <c r="C30" s="7"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="32" spans="3:11" ht="15" customHeight="1">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="15" customHeight="1">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:9" ht="15" customHeight="1">
+      <c r="C36" s="21">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="3:9" ht="15" customHeight="1">
+      <c r="C37" s="4">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="3:9" ht="15" customHeight="1">
+      <c r="E38" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" ht="15" customHeight="1">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="3:9" ht="15" customHeight="1">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" customHeight="1">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="3:9" ht="15" customHeight="1">
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="3:9" ht="15" customHeight="1">
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="40" spans="3:9" ht="15" customHeight="1">
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="3:9" ht="15" customHeight="1">
+      <c r="F39" s="41">
+        <v>5</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
     </row>
     <row r="41" spans="3:9" ht="15" customHeight="1">
       <c r="C41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="15" customHeight="1">
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="15" customHeight="1">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="15" customHeight="1" thickBot="1"/>
     <row r="45" spans="3:9" ht="15" customHeight="1">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="E45" s="42">
+        <v>1</v>
+      </c>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
     </row>
     <row r="46" spans="3:9" ht="15" customHeight="1">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="C46" s="21">
+        <v>2</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="3:9" ht="15" customHeight="1">
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="3:9" ht="15" customHeight="1">
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="50" spans="3:9" ht="15" customHeight="1">
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="4">
+        <v>3</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="6">
+        <v>4</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="3:9" ht="15" customHeight="1">
+      <c r="F49" s="41">
+        <v>5</v>
+      </c>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
     </row>
     <row r="51" spans="3:9" ht="15" customHeight="1">
       <c r="C51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" ht="15" customHeight="1">
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="3:9" ht="15" customHeight="1">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="15" customHeight="1">
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="3:9" ht="15" customHeight="1">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="C56" s="51">
+        <v>2</v>
+      </c>
+      <c r="D56" s="52"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="3:9" ht="15" customHeight="1">
+    </row>
+    <row r="57" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="H57" s="4">
+        <v>3</v>
+      </c>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="3:9" ht="15" customHeight="1">
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="60" spans="3:9" ht="15" customHeight="1">
-      <c r="C60" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="6">
+        <v>4</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="3:9" ht="15" customHeight="1">
+      <c r="F59" s="41">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:9" ht="15" customHeight="1">
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+    </row>
+    <row r="61" spans="3:9" ht="15" customHeight="1">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="3:9" ht="15" customHeight="1">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="3:9" ht="15" customHeight="1">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+    <row r="65" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C65" s="21">
+        <v>2</v>
+      </c>
+      <c r="D65" s="21"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="3:9" ht="15" customHeight="1">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="H66" s="55">
+        <v>3</v>
+      </c>
+      <c r="I66" s="56"/>
     </row>
     <row r="67" spans="3:9" ht="15" customHeight="1">
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="69" spans="3:9" ht="15" customHeight="1">
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
+    </row>
+    <row r="68" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="F68" s="41">
+        <v>5</v>
+      </c>
+      <c r="G68" s="41"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="60"/>
     </row>
     <row r="70" spans="3:9" ht="15" customHeight="1">
       <c r="C70" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" ht="15" customHeight="1">
+      <c r="C71" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1358,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="15" customHeight="1">
@@ -1471,7 +1562,7 @@
     </row>
     <row r="50" spans="3:3" ht="15" customHeight="1">
       <c r="C50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB7FD0F-2147-40BB-AD7A-D34CB7C5CCF2}">
   <dimension ref="C3:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1780,7 @@
       </c>
       <c r="J29" s="27"/>
       <c r="L29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="15" customHeight="1" thickBot="1">
@@ -1728,7 +1819,7 @@
       </c>
       <c r="J34" s="38"/>
       <c r="L34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="3:12" ht="15" customHeight="1" thickBot="1">

--- a/docs/explain.xlsx
+++ b/docs/explain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\divide-into-fewer-rectangles\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED9747-1AB0-4E25-824F-5A20C3236611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FECBC2-62C5-442C-AA5B-3165329FA044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="860" windowWidth="18880" windowHeight="19770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8590" yWindow="330" windowWidth="18880" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>以下、アルゴリズムを示す。</t>
     <rPh sb="0" eb="2">
@@ -154,13 +154,6 @@
     <t>↑　ここで停止する</t>
     <rPh sb="5" eb="7">
       <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ "3" が２つできたのは修正したい</t>
-    <rPh sb="14" eb="16">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -263,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,12 +302,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -517,37 +504,35 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,16 +542,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -849,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -894,7 +901,7 @@
     </row>
     <row r="9" spans="3:9" ht="15" customHeight="1">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="15" customHeight="1">
@@ -933,7 +940,7 @@
     </row>
     <row r="18" spans="3:11" ht="15" customHeight="1">
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="15" customHeight="1">
@@ -1006,13 +1013,13 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1">
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>2</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="3:9" ht="15" customHeight="1">
       <c r="C37" s="4">
@@ -1035,12 +1042,12 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="3:9" ht="15" customHeight="1">
-      <c r="F39" s="41">
+      <c r="F39" s="39">
         <v>5</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="41" spans="3:9" ht="15" customHeight="1">
       <c r="C41" t="s">
@@ -1054,50 +1061,50 @@
     </row>
     <row r="44" spans="3:9" ht="15" customHeight="1" thickBot="1"/>
     <row r="45" spans="3:9" ht="15" customHeight="1">
-      <c r="E45" s="42">
+      <c r="E45" s="40">
         <v>1</v>
       </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="3:9" ht="15" customHeight="1">
-      <c r="C46" s="21">
+      <c r="C46" s="19">
         <v>2</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="3:9" ht="15" customHeight="1">
       <c r="C47" s="4">
         <v>3</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="4">
         <v>3</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="6">
         <v>4</v>
       </c>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="3:9" ht="15" customHeight="1">
-      <c r="F49" s="41">
+      <c r="F49" s="39">
         <v>5</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="51" spans="3:9" ht="15" customHeight="1">
       <c r="C51" t="s">
@@ -1106,7 +1113,7 @@
     </row>
     <row r="52" spans="3:9" ht="15" customHeight="1">
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="15" customHeight="1" thickBot="1">
@@ -1117,17 +1124,17 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="3:9" ht="15" customHeight="1">
-      <c r="C56" s="51">
+      <c r="C56" s="49">
         <v>2</v>
       </c>
-      <c r="D56" s="52"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="C57" s="53"/>
-      <c r="D57" s="54"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -1146,12 +1153,12 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="3:9" ht="15" customHeight="1">
-      <c r="F59" s="41">
+      <c r="F59" s="39">
         <v>5</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
     </row>
     <row r="61" spans="3:9" ht="15" customHeight="1">
       <c r="C61" t="s">
@@ -1166,39 +1173,39 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="C65" s="21">
+      <c r="C65" s="19">
         <v>2</v>
       </c>
-      <c r="D65" s="21"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="3:9" ht="15" customHeight="1">
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="55">
-        <v>3</v>
-      </c>
-      <c r="I66" s="56"/>
+      <c r="H66" s="53">
+        <v>3</v>
+      </c>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="3:9" ht="15" customHeight="1">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="56"/>
     </row>
     <row r="68" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="F68" s="41">
+      <c r="F68" s="39">
         <v>5</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="60"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="58"/>
     </row>
     <row r="70" spans="3:9" ht="15" customHeight="1">
       <c r="C70" t="s">
@@ -1218,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AE21B6-C061-4D11-8702-94CC6A05B3E2}">
-  <dimension ref="C3:Z50"/>
+  <dimension ref="C3:Z77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -1271,297 +1278,423 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="11" spans="3:9" ht="15" customHeight="1">
-      <c r="E11" s="13">
+    <row r="10" spans="3:9" ht="15" customHeight="1">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15" customHeight="1">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="3:9" ht="15" customHeight="1">
+      <c r="C14" s="13"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="3:9" ht="15" customHeight="1">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="3:9" ht="15" customHeight="1">
+      <c r="C16" s="10"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="3:11" ht="15" customHeight="1">
+      <c r="C17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="3:11" ht="15" customHeight="1">
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="20" spans="3:11" ht="15" customHeight="1">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="15" customHeight="1">
+      <c r="E23" s="8">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="25" spans="3:11" ht="15" customHeight="1">
+      <c r="C25" s="8">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="3:11" ht="15" customHeight="1">
+      <c r="C26" s="7"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="3:11" ht="15" customHeight="1">
+      <c r="C27" s="7"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="3:11" ht="15" customHeight="1">
+      <c r="C28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="3:11" ht="15" customHeight="1">
+      <c r="C29" s="7"/>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="3:11" ht="15" customHeight="1">
+      <c r="C30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="32" spans="3:11" ht="15" customHeight="1">
+      <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="3:9" ht="15" customHeight="1">
-      <c r="C12" s="15">
+    </row>
+    <row r="35" spans="3:9" ht="15" customHeight="1">
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="3:9" ht="15" customHeight="1">
+      <c r="C36" s="13">
         <v>2</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="15" customHeight="1">
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="3:9" ht="15" customHeight="1">
-      <c r="C14" s="11">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="3:9" ht="15" customHeight="1">
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" ht="15" customHeight="1">
+      <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E38" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="3:9" ht="15" customHeight="1">
-      <c r="C15" s="16">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="3:9" ht="15" customHeight="1">
-      <c r="C16" s="14">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="19" spans="3:12" ht="15" customHeight="1">
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="3:12" ht="15" customHeight="1">
-      <c r="C20" s="15">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="3:12" ht="15" customHeight="1">
-      <c r="C21" s="6">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="6">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="15" customHeight="1">
-      <c r="C22" s="11">
-        <v>4</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" ht="15" customHeight="1">
-      <c r="C23" s="16">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="3:12" ht="15" customHeight="1">
-      <c r="C24" s="14">
-        <v>8</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="27" spans="3:12" ht="15" customHeight="1">
-      <c r="E27" s="13">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="3:12" ht="15" customHeight="1">
-      <c r="C28" s="15">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="3:12" ht="15" customHeight="1">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="6">
-        <v>3</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="3:12" ht="15" customHeight="1">
-      <c r="C30" s="11">
-        <v>4</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="2">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="3:12" ht="15" customHeight="1">
-      <c r="C31" s="16">
-        <v>6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="3:12" ht="15" customHeight="1">
-      <c r="C32" s="14">
-        <v>8</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="35" spans="3:9" ht="15" customHeight="1">
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" customHeight="1">
-      <c r="C36" s="15">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="3:9" ht="15" customHeight="1">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="6">
-        <v>3</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="3:9" ht="15" customHeight="1">
-      <c r="C38" s="11">
-        <v>4</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" ht="15" customHeight="1">
-      <c r="C39" s="16">
+      <c r="C39" s="14">
         <v>6</v>
       </c>
       <c r="F39" s="4">
         <v>7</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="3:9" ht="15" customHeight="1">
-      <c r="C40" s="14">
+      <c r="C40" s="12">
         <v>8</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="42" spans="3:9" ht="15" customHeight="1">
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="3:9" ht="15" customHeight="1">
-      <c r="E43" s="13">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="15" customHeight="1" thickBot="1"/>
+    <row r="46" spans="3:9" ht="15" customHeight="1">
+      <c r="E46" s="59">
         <v>1</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="3:9" ht="15" customHeight="1">
-      <c r="C44" s="15">
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+    </row>
+    <row r="47" spans="3:9" ht="15" customHeight="1">
+      <c r="C47" s="13">
         <v>2</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="3:9" ht="15" customHeight="1">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="6">
-        <v>3</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="3:9" ht="15" customHeight="1">
-      <c r="C46" s="11">
+      <c r="D47" s="3"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+    </row>
+    <row r="48" spans="3:9" ht="15" customHeight="1">
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="6">
+        <v>3</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C49" s="10">
         <v>4</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="3:9" ht="15" customHeight="1">
-      <c r="C47" s="11"/>
-      <c r="F47" s="4">
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="2">
+        <v>5</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="3:9" ht="15" customHeight="1">
+      <c r="C50" s="14">
+        <v>6</v>
+      </c>
+      <c r="F50" s="4">
         <v>7</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="3:9" ht="15" customHeight="1">
-      <c r="C48" s="11"/>
-      <c r="D48" s="14">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="3:9" ht="15" customHeight="1">
+      <c r="C51" s="12">
         <v>8</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="50" spans="3:3" ht="15" customHeight="1">
-      <c r="C50" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="54" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="E54" s="17">
+        <v>1</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="3:9" ht="15" customHeight="1">
+      <c r="C55" s="68">
+        <v>2</v>
+      </c>
+      <c r="D55" s="69"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="6">
+        <v>3</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="3:9" ht="15" customHeight="1">
+      <c r="C57" s="10">
+        <v>4</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="3:9" ht="15" customHeight="1">
+      <c r="C58" s="14">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4">
+        <v>7</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="3:9" ht="15" customHeight="1">
+      <c r="C59" s="12">
+        <v>8</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="62" spans="3:9" ht="15" customHeight="1">
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C63" s="13">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="3:9" ht="15" customHeight="1">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="72">
+        <v>3</v>
+      </c>
+      <c r="I64" s="73"/>
+    </row>
+    <row r="65" spans="3:9" ht="15" customHeight="1">
+      <c r="C65" s="10">
+        <v>4</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="75"/>
+    </row>
+    <row r="66" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C66" s="14">
+        <v>6</v>
+      </c>
+      <c r="F66" s="4">
+        <v>7</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="3:9" ht="15" customHeight="1">
+      <c r="C67" s="12">
+        <v>8</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="70" spans="3:9" ht="15" customHeight="1">
+      <c r="E70" s="17">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="3:9" ht="15" customHeight="1">
+      <c r="C71" s="13">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="6">
+        <v>3</v>
+      </c>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="3:9" ht="15" customHeight="1">
+      <c r="C73" s="78">
+        <v>4</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="3:9" ht="15" customHeight="1">
+      <c r="C74" s="79"/>
+      <c r="F74" s="4">
+        <v>7</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="3:9" ht="15" customHeight="1" thickBot="1">
+      <c r="C75" s="80"/>
+      <c r="D75" s="12">
+        <v>8</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="77" spans="3:9" ht="15" customHeight="1">
+      <c r="C77" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1609,228 +1742,228 @@
       <c r="J5" s="1"/>
     </row>
     <row r="8" spans="3:10" ht="15" customHeight="1">
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="15" customHeight="1">
-      <c r="C9" s="27">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="C9" s="25">
+        <v>3</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="3:10" ht="15" customHeight="1">
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>4</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="12" spans="3:10" ht="15" customHeight="1" thickBot="1"/>
     <row r="13" spans="3:10" ht="15" customHeight="1">
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="15" customHeight="1">
-      <c r="C14" s="27">
-        <v>3</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="27">
-        <v>3</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="C14" s="25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="25">
+        <v>3</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="3:10" ht="15" customHeight="1" thickBot="1">
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="11">
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10">
         <v>4</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="17" spans="3:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="18" spans="3:12" ht="15" customHeight="1">
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>1</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="15" customHeight="1">
-      <c r="C19" s="27">
-        <v>3</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="27">
-        <v>3</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="27">
-        <v>3</v>
-      </c>
-      <c r="J19" s="27"/>
+      <c r="C19" s="25">
+        <v>3</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="25">
+        <v>3</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="25">
+        <v>3</v>
+      </c>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="11">
+      <c r="D20" s="10"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="10">
         <v>4</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="11">
+      <c r="G20" s="10"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="10">
         <v>4</v>
       </c>
-      <c r="J20" s="11"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="23" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="15" customHeight="1">
-      <c r="C24" s="28">
-        <v>3</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="27">
-        <v>3</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27">
-        <v>3</v>
-      </c>
-      <c r="J24" s="27"/>
+      <c r="C24" s="26">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="25">
+        <v>3</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="25">
+        <v>3</v>
+      </c>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="11">
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="11">
+      <c r="G25" s="10"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="10">
         <v>4</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="28" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="15" customHeight="1">
-      <c r="C29" s="27">
-        <v>3</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="33">
+      <c r="C29" s="25">
+        <v>3</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="31">
         <v>5</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="27">
-        <v>3</v>
-      </c>
-      <c r="J29" s="27"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="25">
+        <v>3</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="L29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="10">
+        <v>4</v>
+      </c>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="33" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15" customHeight="1">
+      <c r="C34" s="25">
+        <v>3</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="30">
+        <v>5</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="35">
+        <v>6</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="L34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="11">
-        <v>4</v>
-      </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="33" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="E33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" ht="15" customHeight="1">
-      <c r="C34" s="27">
-        <v>3</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="32">
-        <v>5</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="37">
-        <v>6</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="L34" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="35" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/explain.xlsx
+++ b/docs/explain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzud\OneDrive\ドキュメント\GitHub\divide-into-fewer-rectangles\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FECBC2-62C5-442C-AA5B-3165329FA044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D486E0-7749-4E05-A2C2-5D249BCBEB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8590" yWindow="330" windowWidth="18880" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8590" yWindow="330" windowWidth="18880" windowHeight="20680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>以下、アルゴリズムを示す。</t>
     <rPh sb="0" eb="2">
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -574,6 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1227,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AE21B6-C061-4D11-8702-94CC6A05B3E2}">
   <dimension ref="C3:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -1706,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB7FD0F-2147-40BB-AD7A-D34CB7C5CCF2}">
-  <dimension ref="C3:Z35"/>
+  <dimension ref="C3:Z58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="15" customHeight="1"/>
@@ -1741,229 +1742,324 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="8" spans="3:10" ht="15" customHeight="1">
-      <c r="E8" s="17">
+    <row r="7" spans="3:10" ht="15" customHeight="1">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="15" customHeight="1">
+      <c r="E10" s="17"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="3:10" ht="15" customHeight="1">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" customHeight="1">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+    </row>
+    <row r="14" spans="3:10" ht="15" customHeight="1">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15" customHeight="1">
+      <c r="E17" s="8">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="19" spans="3:12" ht="15" customHeight="1">
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" ht="15" customHeight="1">
+      <c r="C20" s="7"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="3:12" ht="15" customHeight="1">
+      <c r="C21" s="7"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="23" spans="3:12" ht="15" customHeight="1">
+      <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="23">
+    </row>
+    <row r="26" spans="3:12" ht="15" customHeight="1">
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="15" customHeight="1">
-      <c r="C9" s="25">
-        <v>3</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="3:10" ht="15" customHeight="1">
-      <c r="C10" s="10">
+    <row r="27" spans="3:12" ht="15" customHeight="1">
+      <c r="C27" s="25">
+        <v>3</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="3:12" ht="15" customHeight="1">
+      <c r="C28" s="10">
         <v>4</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="12" spans="3:10" ht="15" customHeight="1" thickBot="1"/>
-    <row r="13" spans="3:10" ht="15" customHeight="1">
-      <c r="E13" s="18">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="30" spans="3:12" ht="15" customHeight="1">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="15" customHeight="1">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="34" spans="3:10" ht="15" customHeight="1">
+      <c r="E34" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H34" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="15" customHeight="1">
-      <c r="C14" s="25">
-        <v>3</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="25">
-        <v>3</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" customHeight="1" thickBot="1">
-      <c r="C15" s="10">
+    <row r="35" spans="3:10" ht="15" customHeight="1">
+      <c r="C35" s="25">
+        <v>3</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="25">
+        <v>3</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="3:10" ht="15" customHeight="1" thickBot="1">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="10">
+      <c r="D36" s="10"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="10">
         <v>4</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="17" spans="3:12" ht="15" customHeight="1" thickBot="1"/>
-    <row r="18" spans="3:12" ht="15" customHeight="1">
-      <c r="E18" s="17">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="38" spans="3:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="39" spans="3:10" ht="15" customHeight="1">
+      <c r="E39" s="17">
         <v>1</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H39" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="15" customHeight="1">
-      <c r="C19" s="25">
-        <v>3</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="25">
-        <v>3</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="25">
-        <v>3</v>
-      </c>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C20" s="10">
+    <row r="40" spans="3:10" ht="15" customHeight="1">
+      <c r="C40" s="25">
+        <v>3</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="25">
+        <v>3</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="25">
+        <v>3</v>
+      </c>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="3:10" ht="15" customHeight="1" thickBot="1">
+      <c r="C41" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="10">
+      <c r="D41" s="10"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="10">
         <v>4</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="10">
+      <c r="G41" s="10"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="10">
         <v>4</v>
       </c>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="23" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="E23" s="17">
+      <c r="J41" s="10"/>
+    </row>
+    <row r="44" spans="3:10" ht="15" customHeight="1" thickBot="1">
+      <c r="E44" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H44" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="15" customHeight="1">
-      <c r="C24" s="26">
-        <v>3</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="25">
-        <v>3</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25">
-        <v>3</v>
-      </c>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="10">
+    <row r="45" spans="3:10" ht="15" customHeight="1">
+      <c r="C45" s="26">
+        <v>3</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="25">
+        <v>3</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="25">
+        <v>3</v>
+      </c>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="3:10" ht="15" customHeight="1" thickBot="1">
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="10">
+      <c r="G46" s="10"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="10">
         <v>4</v>
       </c>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="28" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="E28" s="17">
+      <c r="J46" s="10"/>
+    </row>
+    <row r="49" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="E49" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H49" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="15" customHeight="1">
-      <c r="C29" s="25">
-        <v>3</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="31">
+    <row r="50" spans="3:12" ht="15" customHeight="1">
+      <c r="C50" s="25">
+        <v>3</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="31">
         <v>5</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25">
-        <v>3</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="L29" t="s">
+      <c r="G50" s="32"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="25">
+        <v>3</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="L50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="10">
+    <row r="51" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="10">
         <v>4</v>
       </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="33" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="E33" s="17">
+      <c r="J51" s="10"/>
+    </row>
+    <row r="54" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="E54" s="17">
         <v>1</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H54" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="15" customHeight="1">
-      <c r="C34" s="25">
-        <v>3</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="30">
+    <row r="55" spans="3:12" ht="15" customHeight="1">
+      <c r="C55" s="25">
+        <v>3</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="30">
         <v>5</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="35">
+      <c r="G55" s="30"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="35">
         <v>6</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="L34" t="s">
+      <c r="J55" s="36"/>
+      <c r="L55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="15" customHeight="1" thickBot="1">
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
+    <row r="56" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="58" spans="3:12" ht="15" customHeight="1">
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
